--- a/Excel/AllAboutAI.xlsx
+++ b/Excel/AllAboutAI.xlsx
@@ -468,25 +468,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>h_ybuhqw4Y4</t>
+          <t>BJX6uJHIz5U</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DeepSeek-R1 Blows My Mind Again! - 5 TESTS on Local Models</t>
+          <t>Claude Code + Context7 MCP Server Is a GAME CHANGER  for AI Coding</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-01-28</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>82667</v>
+        <v>55588</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0:27:56</t>
+          <t>0:13:23</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -498,25 +498,25 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>liESRDW7RrE</t>
+          <t>qsdikjJmg08</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>I Did 5 DeepSeek-R1 Experiments | Better Than OpenAI o1?</t>
+          <t>Claude Code + MCP Servers = INSANE Powerful Workflows!</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-03-05</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>77047</v>
+        <v>45722</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0:31:59</t>
+          <t>0:15:18</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -528,25 +528,25 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>KiNyvT02HJM</t>
+          <t>Nl6SVPpRUQI</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>How To Use Anthropic's Model Context Protocol (MCP) | Setup Tutorial</t>
+          <t>OpenAI-o1 on Cursor | First Impressions and Tests vs Claude 3.5</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2024-11-26</t>
+          <t>2024-09-13</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>69068</v>
+        <v>44555</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0:13:51</t>
+          <t>0:30:35</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -558,25 +558,25 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0KtfAdPdA1A</t>
+          <t>MSO4qCiwTjQ</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OpenAI o3-mini vs DeepSeek R1 - First TESTS and Impressions</t>
+          <t>How to Build Super Effective AI AGENTS - FULL TUTORIAL | Cursor - OpenAI</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2024-12-26</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>39979</v>
+        <v>41881</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0:30:38</t>
+          <t>0:29:46</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -588,25 +588,25 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>wdPKkr20CB8</t>
+          <t>eD5SUj5qqgI</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DeepSeek-R1 Is Challenging OpenAI - How Good Is It? | TESTED</t>
+          <t>Browser MCP with Cursor: Automate Tasks and Testing</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>36665</v>
+        <v>35774</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0:18:55</t>
+          <t>0:10:55</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -618,25 +618,25 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>qsdikjJmg08</t>
+          <t>fv1rkctrEPk</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Claude Code + MCP Servers = INSANE Powerful Workflows!</t>
+          <t>How to Build an AI Web App with Claude 3.5 and Cursor | Full Tutorial</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2024-08-18</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>34811</v>
+        <v>34070</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0:15:18</t>
+          <t>0:51:21</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -648,25 +648,25 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>FiirOCVrPOk</t>
+          <t>wwC86t5k77Y</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>This Claude MCP GitHub AI AGENT Changes EVERYTHING!</t>
+          <t>Coding With OpenAI-o1 in Cursor - Can We Replace Claude 3.5 Now?</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2024-11-29</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>29210</v>
+        <v>31517</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0:15:23</t>
+          <t>0:15:43</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -678,25 +678,25 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>5V4_q-jMTFU</t>
+          <t>jnaeB6LjoQs</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Testing The Claude 3.5 x OpenAI-o1 MCP AI AGENT - Something Special?</t>
+          <t>Coding With Cursor AI: Lets Build a Full-Stack Web App feat Stripe | Full Tutorial</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2024-12-02</t>
+          <t>2024-08-24</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>19853</v>
+        <v>29079</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0:11:50</t>
+          <t>1:21:30</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -708,25 +708,25 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>uq4lOP_s_jQ</t>
+          <t>xiYSbWh1Tmk</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Claude MCP Workflow: Proof That AI AGENTS Will Change Work Forever?</t>
+          <t>Claude Code: The Best Coding AI Agent? - First Impression</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>19221</v>
+        <v>27487</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0:14:20</t>
+          <t>0:12:36</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -738,25 +738,25 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>aIAxWr5ix1o</t>
+          <t>tD9ASvTYmyw</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Claude MCP - How To Modify Your Servers To The Next Level</t>
+          <t>Replit AI Agent - My First Impression | Cursor Challenger?</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-09-08</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>11449</v>
+        <v>25934</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0:14:21</t>
+          <t>0:19:48</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
